--- a/docs/CRUD/Rôles CRUD(excel pdf).xlsx
+++ b/docs/CRUD/Rôles CRUD(excel pdf).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\WazaaGoupeEval\docs\CRUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AA2604-8F67-4D38-888D-3F7ED7E316A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719EDC95-3CF5-4741-A9F4-34393E1B329E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Développeur</t>
   </si>
@@ -115,8 +115,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>UD</t>
+    </r>
+  </si>
+  <si>
+    <t>*:Lié id internautes au commentaire</t>
+  </si>
+  <si>
+    <t>CRUD*</t>
+  </si>
+  <si>
+    <t>**: Il peut voir et modifier uniquement ses informations personnelles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>U</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CRUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>***</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -125,63 +183,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UD</t>
-    </r>
-  </si>
-  <si>
-    <t>*:Lié id internautes au commentaire</t>
-  </si>
-  <si>
-    <t>CRUD*</t>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
+      <t>CRUD</t>
     </r>
     <r>
       <rPr>
@@ -191,53 +193,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <t>**: Il peut voir et modifier uniquement ses informations personnelles</t>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
+      <t>****</t>
+    </r>
+  </si>
+  <si>
+    <t>***CUD disponible pour un employé spécifique, R pour tous</t>
+  </si>
+  <si>
+    <t>****L'internaute crée son compte et peut le supprimer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +236,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -376,22 +353,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -404,11 +370,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -692,21 +661,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
@@ -715,13 +683,13 @@
     <col min="13" max="13" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -729,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -751,23 +719,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -775,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,15 +753,9 @@
       <c r="C9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,26 +763,26 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -828,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,18 +801,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,9 +824,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
@@ -889,8 +851,8 @@
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
@@ -901,16 +863,16 @@
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
@@ -947,46 +909,70 @@
         <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="A28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
